--- a/2024/nuno-dataset/test-oxigen/content/results/metrics_2_4.xlsx
+++ b/2024/nuno-dataset/test-oxigen/content/results/metrics_2_4.xlsx
@@ -482,28 +482,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.5903724439000633</v>
+        <v>-0.001236788884735551</v>
       </c>
       <c r="C2" t="n">
-        <v>-7.426178360157275</v>
+        <v>-0.0771084754329987</v>
       </c>
       <c r="D2" t="n">
-        <v>0.868808632353281</v>
+        <v>-0.341152233302648</v>
       </c>
       <c r="E2" t="n">
-        <v>0.09328589788894592</v>
+        <v>-0.05115300178463333</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4533370137214661</v>
+        <v>1.108074069023132</v>
       </c>
       <c r="G2" t="n">
-        <v>1.262137413024902</v>
+        <v>1.959989070892334</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2110260277986526</v>
+        <v>0.2471889555454254</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7674967050552368</v>
+        <v>1.15396523475647</v>
       </c>
     </row>
     <row r="3">
@@ -513,152 +513,152 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6448868339712546</v>
+        <v>0.03860672347268723</v>
       </c>
       <c r="C3" t="n">
-        <v>-6.203911329060067</v>
+        <v>-0.1027274069571471</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8822971157232933</v>
+        <v>-0.3719719032556219</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2198544241955603</v>
+        <v>-0.07606939401569046</v>
       </c>
       <c r="F3" t="n">
-        <v>0.3930056393146515</v>
+        <v>1.063979029655457</v>
       </c>
       <c r="G3" t="n">
-        <v>1.079056859016418</v>
+        <v>2.006607294082642</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1893293261528015</v>
+        <v>0.2528693675994873</v>
       </c>
       <c r="I3" t="n">
-        <v>0.6603617072105408</v>
+        <v>1.181318759918213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_21</t>
+          <t>model_2_4_14</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.7366848879919577</v>
+        <v>0.09919338355202301</v>
       </c>
       <c r="C4" t="n">
-        <v>-6.41029322287142</v>
+        <v>-0.1967812923922139</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6486621338714376</v>
+        <v>-0.4117062867951791</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.008411421963685051</v>
+        <v>-0.161743799631052</v>
       </c>
       <c r="F4" t="n">
-        <v>0.2914122045040131</v>
+        <v>0.9969275593757629</v>
       </c>
       <c r="G4" t="n">
-        <v>1.109970331192017</v>
+        <v>2.177754878997803</v>
       </c>
       <c r="H4" t="n">
-        <v>0.5651395916938782</v>
+        <v>0.2601928412914276</v>
       </c>
       <c r="I4" t="n">
-        <v>0.8535794615745544</v>
+        <v>1.275372743606567</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_20</t>
+          <t>model_2_4_2</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7367808227919797</v>
+        <v>0.09929134637632209</v>
       </c>
       <c r="C5" t="n">
-        <v>-6.429941410468145</v>
+        <v>-0.1467233699917059</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6512357785917837</v>
+        <v>-0.5171858507911891</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.007950468761280804</v>
+        <v>-0.1261501727855825</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2913060784339905</v>
+        <v>0.9968190789222717</v>
       </c>
       <c r="G5" t="n">
-        <v>1.112913370132446</v>
+        <v>2.086665630340576</v>
       </c>
       <c r="H5" t="n">
-        <v>0.5609998106956482</v>
+        <v>0.2796338796615601</v>
       </c>
       <c r="I5" t="n">
-        <v>0.85318922996521</v>
+        <v>1.236297845840454</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_24</t>
+          <t>model_2_4_16</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7372257480817258</v>
+        <v>0.09930816734455727</v>
       </c>
       <c r="C6" t="n">
-        <v>-6.363211478583816</v>
+        <v>-0.196515009631226</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6461971153160003</v>
+        <v>-0.4099056673005024</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.006205273785758303</v>
+        <v>-0.1613678037111921</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2908136546611786</v>
+        <v>0.9968004822731018</v>
       </c>
       <c r="G6" t="n">
-        <v>1.102918028831482</v>
+        <v>2.177270412445068</v>
       </c>
       <c r="H6" t="n">
-        <v>0.5691046714782715</v>
+        <v>0.2598609328269958</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8517119884490967</v>
+        <v>1.274960160255432</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_23</t>
+          <t>model_2_4_15</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7372446731597708</v>
+        <v>0.0993141001281147</v>
       </c>
       <c r="C7" t="n">
-        <v>-6.365901184968124</v>
+        <v>-0.196500620812958</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6465741889538708</v>
+        <v>-0.4098136995747119</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.006119916081125609</v>
+        <v>-0.1613478982550252</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2907927334308624</v>
+        <v>0.9967938661575317</v>
       </c>
       <c r="G7" t="n">
-        <v>1.103320837020874</v>
+        <v>2.177244186401367</v>
       </c>
       <c r="H7" t="n">
-        <v>0.5684981346130371</v>
+        <v>0.2598440051078796</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8516398072242737</v>
+        <v>1.274938106536865</v>
       </c>
     </row>
     <row r="8">
@@ -668,90 +668,90 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.7374653026745558</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.370861429301282</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D8" t="n">
-        <v>0.648238882344651</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.005096030526273276</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2905485332012177</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G8" t="n">
-        <v>1.104063868522644</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H8" t="n">
-        <v>0.5658204555511475</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I8" t="n">
-        <v>0.8507730960845947</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_13</t>
+          <t>model_2_4_21</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7376918922215172</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C9" t="n">
-        <v>-6.513765907658672</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6647283960064521</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.003738024386477523</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F9" t="n">
-        <v>0.2902977764606476</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G9" t="n">
-        <v>1.125469207763672</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H9" t="n">
-        <v>0.5392964482307434</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I9" t="n">
-        <v>0.8496236205101013</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_14</t>
+          <t>model_2_4_20</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7378599121379493</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C10" t="n">
-        <v>-6.500073079584549</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D10" t="n">
-        <v>0.6640801599860391</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.003034418909896308</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2901118397712708</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G10" t="n">
-        <v>1.12341833114624</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5403391718864441</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I10" t="n">
-        <v>0.8490280508995056</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="11">
@@ -761,152 +761,152 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.7379771310383341</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C11" t="n">
-        <v>-6.401314677001202</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6540476808458071</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.002754123932439567</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F11" t="n">
-        <v>0.2899821102619171</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G11" t="n">
-        <v>1.108625411987305</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H11" t="n">
-        <v>0.5564767122268677</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I11" t="n">
-        <v>0.84879070520401</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_15</t>
+          <t>model_2_4_18</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.7381128223581879</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C12" t="n">
-        <v>-6.486845209692965</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D12" t="n">
-        <v>0.6638902982260924</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.001965055215593647</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F12" t="n">
-        <v>0.2898319363594055</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G12" t="n">
-        <v>1.121436834335327</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H12" t="n">
-        <v>0.5406445264816284</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I12" t="n">
-        <v>0.8481228947639465</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_16</t>
+          <t>model_2_4_17</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7383324657024921</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C13" t="n">
-        <v>-6.474359750371076</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D13" t="n">
-        <v>0.6636184959173783</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0010384688131575</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2895888686180115</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G13" t="n">
-        <v>1.119566679000854</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H13" t="n">
-        <v>0.5410817861557007</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I13" t="n">
-        <v>0.8473385572433472</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_17</t>
+          <t>model_2_4_24</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.738512851686157</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C14" t="n">
-        <v>-6.459641936884979</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D14" t="n">
-        <v>0.6629219954448858</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.0002825350244652913</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F14" t="n">
-        <v>0.2893892228603363</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G14" t="n">
-        <v>1.117362141609192</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H14" t="n">
-        <v>0.5422020554542542</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I14" t="n">
-        <v>0.8466985821723938</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_18</t>
+          <t>model_2_4_23</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.7386261120593083</v>
+        <v>0.09932080507882668</v>
       </c>
       <c r="C15" t="n">
-        <v>-6.430027567161606</v>
+        <v>-0.1964480985326931</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6602962002516665</v>
+        <v>-0.4101482731144555</v>
       </c>
       <c r="E15" t="n">
-        <v>0.0001439156390532492</v>
+        <v>-0.1613282421129689</v>
       </c>
       <c r="F15" t="n">
-        <v>0.2892638742923737</v>
+        <v>0.9967864155769348</v>
       </c>
       <c r="G15" t="n">
-        <v>1.112926244735718</v>
+        <v>2.177148580551147</v>
       </c>
       <c r="H15" t="n">
-        <v>0.5464258193969727</v>
+        <v>0.2599056661128998</v>
       </c>
       <c r="I15" t="n">
-        <v>0.8463376760482788</v>
+        <v>1.274916648864746</v>
       </c>
     </row>
     <row r="16">
@@ -916,338 +916,338 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.7442434979937453</v>
+        <v>0.09939638384743188</v>
       </c>
       <c r="C16" t="n">
-        <v>-6.232494621744861</v>
+        <v>-0.195432282902307</v>
       </c>
       <c r="D16" t="n">
-        <v>0.6668801205460745</v>
+        <v>-0.4179740990600016</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02453726782838195</v>
+        <v>-0.161055069300692</v>
       </c>
       <c r="F16" t="n">
-        <v>0.283047080039978</v>
+        <v>0.9967028498649597</v>
       </c>
       <c r="G16" t="n">
-        <v>1.083338260650635</v>
+        <v>2.175300121307373</v>
       </c>
       <c r="H16" t="n">
-        <v>0.535835325717926</v>
+        <v>0.2613480687141418</v>
       </c>
       <c r="I16" t="n">
-        <v>0.8256897330284119</v>
+        <v>1.274616599082947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_11</t>
+          <t>model_2_4_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.74676117899689</v>
+        <v>0.0994318744978907</v>
       </c>
       <c r="C17" t="n">
-        <v>-6.170384926388098</v>
+        <v>-0.193277522791294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.6725374411692662</v>
+        <v>-0.4384853791436401</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03541490953468773</v>
+        <v>-0.1607848138527508</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2802607417106628</v>
+        <v>0.9966636300086975</v>
       </c>
       <c r="G17" t="n">
-        <v>1.074035048484802</v>
+        <v>2.171379089355469</v>
       </c>
       <c r="H17" t="n">
-        <v>0.5267353057861328</v>
+        <v>0.265128493309021</v>
       </c>
       <c r="I17" t="n">
-        <v>0.8164822459220886</v>
+        <v>1.274319887161255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_10</t>
+          <t>model_2_4_13</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.7486035423594828</v>
+        <v>0.09962912926329348</v>
       </c>
       <c r="C18" t="n">
-        <v>-6.193838354406764</v>
+        <v>-0.1952749726472431</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6841081609740631</v>
+        <v>-0.4100658353433144</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04356498722789104</v>
+        <v>-0.1602922780579776</v>
       </c>
       <c r="F18" t="n">
-        <v>0.2782217860221863</v>
+        <v>0.9964452385902405</v>
       </c>
       <c r="G18" t="n">
-        <v>1.077548146247864</v>
+        <v>2.175013780593872</v>
       </c>
       <c r="H18" t="n">
-        <v>0.5081233978271484</v>
+        <v>0.2598904669284821</v>
       </c>
       <c r="I18" t="n">
-        <v>0.8095834851264954</v>
+        <v>1.273779273033142</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_9</t>
+          <t>model_2_4_11</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.7487160703399557</v>
+        <v>0.09981486051873822</v>
       </c>
       <c r="C19" t="n">
-        <v>-6.210344656724367</v>
+        <v>-0.1929980713590784</v>
       </c>
       <c r="D19" t="n">
-        <v>0.6865930833177933</v>
+        <v>-0.426604944680764</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04424078743749893</v>
+        <v>-0.1596009409579628</v>
       </c>
       <c r="F19" t="n">
-        <v>0.2780972719192505</v>
+        <v>0.9962397813796997</v>
       </c>
       <c r="G19" t="n">
-        <v>1.080020427703857</v>
+        <v>2.170870780944824</v>
       </c>
       <c r="H19" t="n">
-        <v>0.5041263103485107</v>
+        <v>0.2629387974739075</v>
       </c>
       <c r="I19" t="n">
-        <v>0.8090114593505859</v>
+        <v>1.273020386695862</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_8</t>
+          <t>model_2_4_9</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.7535476028517433</v>
+        <v>0.100859368823372</v>
       </c>
       <c r="C20" t="n">
-        <v>-6.023159790715087</v>
+        <v>-0.1857795595441754</v>
       </c>
       <c r="D20" t="n">
-        <v>0.690917639756043</v>
+        <v>-0.4542717490203676</v>
       </c>
       <c r="E20" t="n">
-        <v>0.06564420839105012</v>
+        <v>-0.1554524533141999</v>
       </c>
       <c r="F20" t="n">
-        <v>0.272750198841095</v>
+        <v>0.995083749294281</v>
       </c>
       <c r="G20" t="n">
-        <v>1.051982522010803</v>
+        <v>2.157735347747803</v>
       </c>
       <c r="H20" t="n">
-        <v>0.497170090675354</v>
+        <v>0.2680381238460541</v>
       </c>
       <c r="I20" t="n">
-        <v>0.7908943891525269</v>
+        <v>1.268465995788574</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_7</t>
+          <t>model_2_4_8</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.7708039042835995</v>
+        <v>0.1014686107787831</v>
       </c>
       <c r="C21" t="n">
-        <v>-5.538556810347901</v>
+        <v>-0.1789144520370398</v>
       </c>
       <c r="D21" t="n">
-        <v>0.7247577281641288</v>
+        <v>-0.4855427840400852</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1413057565233309</v>
+        <v>-0.1518987257648128</v>
       </c>
       <c r="F21" t="n">
-        <v>0.2536525428295135</v>
+        <v>0.994409441947937</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9793950319290161</v>
+        <v>2.145242929458618</v>
       </c>
       <c r="H21" t="n">
-        <v>0.4427371025085449</v>
+        <v>0.2738017141819</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7268499135971069</v>
+        <v>1.264564752578735</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_6</t>
+          <t>model_2_4_3</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.7894582076067255</v>
+        <v>0.1020292019527212</v>
       </c>
       <c r="C22" t="n">
-        <v>-5.038646104059914</v>
+        <v>-0.1702853267273956</v>
       </c>
       <c r="D22" t="n">
-        <v>0.7648350646071125</v>
+        <v>-0.5120716487583978</v>
       </c>
       <c r="E22" t="n">
-        <v>0.2239783931534459</v>
+        <v>-0.1464224385256563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.2330076992511749</v>
+        <v>0.9937890768051147</v>
       </c>
       <c r="G22" t="n">
-        <v>0.9045145511627197</v>
+        <v>2.129540681838989</v>
       </c>
       <c r="H22" t="n">
-        <v>0.3782712817192078</v>
+        <v>0.2786912620067596</v>
       </c>
       <c r="I22" t="n">
-        <v>0.6568708419799805</v>
+        <v>1.25855278968811</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_5</t>
+          <t>model_2_4_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.8004366002361947</v>
+        <v>0.1021750504245095</v>
       </c>
       <c r="C23" t="n">
-        <v>-4.630227556656163</v>
+        <v>-0.1701528952795848</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7835193128837785</v>
+        <v>-0.5128949163892607</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2789493962731678</v>
+        <v>-0.146371268476196</v>
       </c>
       <c r="F23" t="n">
-        <v>0.2208578735589981</v>
+        <v>0.993627667427063</v>
       </c>
       <c r="G23" t="n">
-        <v>0.8433384895324707</v>
+        <v>2.129300117492676</v>
       </c>
       <c r="H23" t="n">
-        <v>0.3482170104980469</v>
+        <v>0.2788430154323578</v>
       </c>
       <c r="I23" t="n">
-        <v>0.6103401184082031</v>
+        <v>1.258496642112732</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_4</t>
+          <t>model_2_4_5</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.8198264762316551</v>
+        <v>0.1026596559564265</v>
       </c>
       <c r="C24" t="n">
-        <v>-4.364729022246418</v>
+        <v>-0.1718205537665856</v>
       </c>
       <c r="D24" t="n">
-        <v>0.8716373944400611</v>
+        <v>-0.4865137808111959</v>
       </c>
       <c r="E24" t="n">
-        <v>0.3826231986643704</v>
+        <v>-0.1457503463690848</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1993989944458008</v>
+        <v>0.9930914044380188</v>
       </c>
       <c r="G24" t="n">
-        <v>0.803570032119751</v>
+        <v>2.132334470748901</v>
       </c>
       <c r="H24" t="n">
-        <v>0.2064758539199829</v>
+        <v>0.2739806473255157</v>
       </c>
       <c r="I24" t="n">
-        <v>0.5225844383239746</v>
+        <v>1.257815003395081</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_3</t>
+          <t>model_2_4_6</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.8404409949429846</v>
+        <v>0.1027171165504086</v>
       </c>
       <c r="C25" t="n">
-        <v>-3.211698607303514</v>
+        <v>-0.1724941609164194</v>
       </c>
       <c r="D25" t="n">
-        <v>0.922128997497542</v>
+        <v>-0.4811592322862823</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5357958200670009</v>
+        <v>-0.1459184729065193</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1765847951173782</v>
+        <v>0.9930276870727539</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6308603882789612</v>
+        <v>2.133560419082642</v>
       </c>
       <c r="H25" t="n">
-        <v>0.1252583116292953</v>
+        <v>0.2729937732219696</v>
       </c>
       <c r="I25" t="n">
-        <v>0.3929300308227539</v>
+        <v>1.257999539375305</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_2_4_2</t>
+          <t>model_2_4_7</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.84581285642472</v>
+        <v>0.1032754513636238</v>
       </c>
       <c r="C26" t="n">
-        <v>-2.780787218689223</v>
+        <v>-0.172439474490192</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9243484091876546</v>
+        <v>-0.4634053168027545</v>
       </c>
       <c r="E26" t="n">
-        <v>0.5781497851622721</v>
+        <v>-0.1444677694639867</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1706397384405136</v>
+        <v>0.9924098253250122</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5663151741027832</v>
+        <v>2.133460521697998</v>
       </c>
       <c r="H26" t="n">
-        <v>0.1216883063316345</v>
+        <v>0.2697215378284454</v>
       </c>
       <c r="I26" t="n">
-        <v>0.3570790886878967</v>
+        <v>1.256407141685486</v>
       </c>
     </row>
   </sheetData>
